--- a/Similarity/000001.SH_Probability.xlsx
+++ b/Similarity/000001.SH_Probability.xlsx
@@ -710,11 +710,11 @@
     <row customHeight="1" ht="35" r="2" spans="1:4">
       <c r="A2" s="5" t="s"/>
       <c r="B2" s="6" t="n">
-        <v>0</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C2" s="7" t="s"/>
       <c r="D2" s="8" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="3" spans="1:4">
@@ -722,23 +722,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0.3035714285714286</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.4107142857142857</v>
+        <v>0.290909090909091</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="4" spans="1:4">
       <c r="A4" s="11" t="s"/>
       <c r="B4" s="12" t="n">
-        <v>0.6964285714285714</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C4" s="13" t="s"/>
       <c r="D4" s="14" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.1454545454545454</v>
       </c>
     </row>
   </sheetData>
